--- a/standard/matura/zrobione/2022_grudzien/rozwiazania_pliki/zad4.xlsx
+++ b/standard/matura/zrobione/2022_grudzien/rozwiazania_pliki/zad4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I9\Documents\GitHub\Programming\standard\matura\grudzien_2022\rozwiazania_pliki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I9\Documents\GitHub\Programming\standard\matura\zrobione\2022_grudzien\rozwiazania_pliki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8368E1-80B6-4CF9-A753-482E957832E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3063B72E-72DE-4292-B854-E2E7644C76DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="480" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wykres_4_2" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Data</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>liczba dni w ktorej zabraklo wody</t>
+  </si>
+  <si>
+    <t>lacznie z wodociagow</t>
   </si>
 </sst>
 </file>
@@ -233,23 +236,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -257,6 +259,12 @@
   <dxfs count="12">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -272,12 +280,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1558,7 +1560,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3254A391-02A5-4FE6-8E0C-F7449C0215D8}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="176" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="172" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1569,7 +1571,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9303111" cy="6077599"/>
+    <xdr:ext cx="9297951" cy="6074956"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1">
@@ -3470,7 +3472,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3BC8863E-1791-4C79-8C50-BA3A29F820BA}" name="Tabela przestawna1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3BC8863E-1791-4C79-8C50-BA3A29F820BA}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -3624,27 +3626,27 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF5051BC-5D8F-476D-8225-10139C456AF1}" name="ekodom36" displayName="ekodom36" ref="A1:I366" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I366" xr:uid="{DF5051BC-5D8F-476D-8225-10139C456AF1}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4DC00020-C3FF-4E24-98FA-ADC2C5B7C7DA}" uniqueName="1" name="Data" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{4DC00020-C3FF-4E24-98FA-ADC2C5B7C7DA}" uniqueName="1" name="Data" queryTableFieldId="1" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{31EE998A-54C9-40E6-87D4-FFCC0C4B647B}" uniqueName="2" name="retencja" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{E545393D-D556-485B-8124-9B8C0C456799}" uniqueName="3" name="ilosc dni bez opadow" queryTableFieldId="3" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{E545393D-D556-485B-8124-9B8C0C456799}" uniqueName="3" name="ilosc dni bez opadow" queryTableFieldId="3" dataDxfId="9">
       <calculatedColumnFormula>IF(ekodom36[[#This Row],[retencja]]=0,C1+1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{826222FC-C3AA-4CDB-87F8-B4A0DD90D10F}" uniqueName="4" name="podlewanie ogrodka" queryTableFieldId="4" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{826222FC-C3AA-4CDB-87F8-B4A0DD90D10F}" uniqueName="4" name="podlewanie ogrodka" queryTableFieldId="4" dataDxfId="8">
       <calculatedColumnFormula>IF(ekodom36[[#This Row],[ilosc dni bez opadow]]&lt;&gt;0,IF(MOD(ekodom36[[#This Row],[ilosc dni bez opadow]], 5)=0, 1, 0), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0F7894AA-A0E2-4E75-8AF4-00391B6076FB}" uniqueName="5" name="Przed pobraniem" queryTableFieldId="5" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{0F7894AA-A0E2-4E75-8AF4-00391B6076FB}" uniqueName="5" name="Przed pobraniem" queryTableFieldId="5" dataDxfId="7">
       <calculatedColumnFormula>G1+ekodom36[[#This Row],[retencja]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CBBB1ACA-C7C8-4836-8FEE-54D4E74A6D76}" uniqueName="6" name="Po zwyklym uzyciu" queryTableFieldId="6" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{CBBB1ACA-C7C8-4836-8FEE-54D4E74A6D76}" uniqueName="6" name="Po zwyklym uzyciu" queryTableFieldId="6" dataDxfId="6">
       <calculatedColumnFormula>ekodom36[[#This Row],[Przed pobraniem]] - IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&gt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&gt;0,190,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{85EAA339-AF12-4D74-887F-A68D668B91AF}" uniqueName="8" name="Po podlaniu ogrodka" queryTableFieldId="8" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{85EAA339-AF12-4D74-887F-A68D668B91AF}" uniqueName="8" name="Po podlaniu ogrodka" queryTableFieldId="8" dataDxfId="5">
       <calculatedColumnFormula>ekodom36[[#This Row],[Po zwyklym uzyciu]] - IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&gt;0,300,0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{512F0EB4-FC44-4459-A9F4-BFFC0F68EDED}" uniqueName="7" name="Z wodociagow na zwykle uzycie" queryTableFieldId="7" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{512F0EB4-FC44-4459-A9F4-BFFC0F68EDED}" uniqueName="7" name="Z wodociagow na zwykle uzycie" queryTableFieldId="7" dataDxfId="4">
       <calculatedColumnFormula>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F624AEF7-153E-408E-9798-825CCCAF8ECD}" uniqueName="9" name="Z wodociagow na ogrodek" queryTableFieldId="9" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{F624AEF7-153E-408E-9798-825CCCAF8ECD}" uniqueName="9" name="Z wodociagow na ogrodek" queryTableFieldId="9" dataDxfId="3">
       <calculatedColumnFormula>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3656,12 +3658,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{85090986-1FDD-4AF8-839E-5AEA38F904F3}" name="ekodom3" displayName="ekodom3" ref="A1:D366" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D366" xr:uid="{85090986-1FDD-4AF8-839E-5AEA38F904F3}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A6DA0BF3-3E00-44B0-8345-EE36705E7F75}" uniqueName="1" name="Data" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{A6DA0BF3-3E00-44B0-8345-EE36705E7F75}" uniqueName="1" name="Data" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{30ECE5C0-AF32-4074-85F9-53C7DC607C45}" uniqueName="2" name="retencja" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{2B5B55B4-121B-474E-9E25-6DA94636EE67}" uniqueName="3" name="ilosc dni bez opadow" queryTableFieldId="3" dataDxfId="9">
+    <tableColumn id="3" xr3:uid="{2B5B55B4-121B-474E-9E25-6DA94636EE67}" uniqueName="3" name="ilosc dni bez opadow" queryTableFieldId="3" dataDxfId="1">
       <calculatedColumnFormula>IF(ekodom3[[#This Row],[retencja]]=0,C1+1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A28315A5-B101-427A-B98F-0BB183FDC93C}" uniqueName="4" name="podlewanie ogrodka" queryTableFieldId="4" dataDxfId="8">
+    <tableColumn id="4" xr3:uid="{A28315A5-B101-427A-B98F-0BB183FDC93C}" uniqueName="4" name="podlewanie ogrodka" queryTableFieldId="4" dataDxfId="0">
       <calculatedColumnFormula>IF(ekodom3[[#This Row],[ilosc dni bez opadow]]&lt;&gt;0,IF(MOD(ekodom3[[#This Row],[ilosc dni bez opadow]], 5)=0, 1, 0), 0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3956,7 +3958,7 @@
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4">
         <v>2452</v>
       </c>
     </row>
@@ -3964,7 +3966,7 @@
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>1381</v>
       </c>
     </row>
@@ -3972,7 +3974,7 @@
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6">
         <v>3755</v>
       </c>
     </row>
@@ -3980,7 +3982,7 @@
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7">
         <v>4213</v>
       </c>
     </row>
@@ -3988,7 +3990,7 @@
       <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8">
         <v>3935</v>
       </c>
     </row>
@@ -3996,7 +3998,7 @@
       <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9">
         <v>5566</v>
       </c>
     </row>
@@ -4004,7 +4006,7 @@
       <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10">
         <v>6516</v>
       </c>
     </row>
@@ -4012,7 +4014,7 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11">
         <v>2698</v>
       </c>
     </row>
@@ -4020,7 +4022,7 @@
       <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12">
         <v>5680</v>
       </c>
     </row>
@@ -4028,7 +4030,7 @@
       <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13">
         <v>12225</v>
       </c>
     </row>
@@ -4036,7 +4038,7 @@
       <c r="A14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14">
         <v>14761</v>
       </c>
     </row>
@@ -4044,7 +4046,7 @@
       <c r="A15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15">
         <v>840</v>
       </c>
     </row>
@@ -4052,7 +4054,7 @@
       <c r="A16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16">
         <v>64022</v>
       </c>
     </row>
@@ -7015,8 +7017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D814067-1438-419C-ADD6-35029EA0079A}">
   <dimension ref="A1:K366"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7027,8 +7029,9 @@
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7090,7 +7093,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -7129,13 +7132,13 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>COUNTIFS(H:H,"&gt;0",I:I,"=0")</f>
-        <v>66</v>
+        <f>COUNTIF(H:H, "&gt;0")</f>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7169,12 +7172,12 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>COUNTIFS(I:I,"&gt;0",H:H,"=0")</f>
+        <f>COUNTIFS(H:H,"=0",I:I,"&gt;0")</f>
         <v>2</v>
       </c>
     </row>
@@ -7209,13 +7212,9 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="13">
-        <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f>COUNTIFS(H:H,"&gt;0",I:I,"&gt;0")</f>
-        <v>10</v>
+      <c r="I5">
+        <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7249,7 +7248,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -7285,7 +7284,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -7325,7 +7324,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -7361,9 +7360,12 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I9" s="13">
-        <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
-        <v>0</v>
+      <c r="I9">
+        <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -7397,9 +7399,13 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I10" s="13">
-        <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
-        <v>0</v>
+      <c r="I10">
+        <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>SUM(H:H)+SUM(I:I)</f>
+        <v>19230</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -7433,7 +7439,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -7469,7 +7475,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -7505,7 +7511,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -7541,7 +7547,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -7577,7 +7583,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -7613,7 +7619,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -7649,7 +7655,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -7685,7 +7691,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -7721,7 +7727,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -7757,7 +7763,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -7793,7 +7799,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -7829,7 +7835,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -7865,7 +7871,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -7901,7 +7907,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -7937,7 +7943,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -7973,7 +7979,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8009,7 +8015,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8045,7 +8051,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8081,7 +8087,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8117,7 +8123,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8153,7 +8159,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8189,7 +8195,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8225,7 +8231,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8261,7 +8267,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8297,7 +8303,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8333,7 +8339,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8369,7 +8375,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8405,7 +8411,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8441,7 +8447,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8477,7 +8483,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8513,7 +8519,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>260</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8549,7 +8555,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8585,7 +8591,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8621,7 +8627,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8657,7 +8663,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8693,7 +8699,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8729,7 +8735,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I47">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8765,7 +8771,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>260</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I48">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8801,7 +8807,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8837,7 +8843,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I50">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8873,7 +8879,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I51">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8909,7 +8915,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I52">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8945,7 +8951,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I53">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -8981,7 +8987,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I54">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9017,7 +9023,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>260</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I55">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9053,7 +9059,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I56">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9089,7 +9095,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9125,7 +9131,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I58">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9161,7 +9167,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I59">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9197,7 +9203,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I60">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9233,7 +9239,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I61">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9269,7 +9275,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>260</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I62">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9305,7 +9311,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I63">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9341,7 +9347,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I64">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9377,7 +9383,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I65">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9413,7 +9419,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I66">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9449,7 +9455,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I67">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9485,7 +9491,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I68">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9521,7 +9527,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I69">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9557,7 +9563,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I70">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9593,7 +9599,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I71" s="13">
+      <c r="I71">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9629,7 +9635,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I72">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9665,7 +9671,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I73">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9701,7 +9707,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I74">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9737,7 +9743,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I75">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9773,7 +9779,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>260</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I76">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9809,7 +9815,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I77" s="13">
+      <c r="I77">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9845,7 +9851,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I78" s="13">
+      <c r="I78">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9881,7 +9887,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I79">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9917,7 +9923,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I80">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9953,7 +9959,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I81">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -9989,7 +9995,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I82">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10025,7 +10031,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>260</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I83">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10061,7 +10067,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I84">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10097,7 +10103,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I85">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10133,7 +10139,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I86">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10169,7 +10175,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I87">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10205,7 +10211,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I88">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10241,7 +10247,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I89">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10277,7 +10283,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>260</v>
       </c>
-      <c r="I90" s="13">
+      <c r="I90">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10313,7 +10319,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I91">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10349,7 +10355,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I92" s="13">
+      <c r="I92">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10385,7 +10391,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I93" s="13">
+      <c r="I93">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10421,7 +10427,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I94" s="13">
+      <c r="I94">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10457,7 +10463,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I95" s="13">
+      <c r="I95">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10493,7 +10499,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I96" s="13">
+      <c r="I96">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10529,7 +10535,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I97" s="13">
+      <c r="I97">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10565,7 +10571,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I98" s="13">
+      <c r="I98">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10601,7 +10607,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I99" s="13">
+      <c r="I99">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10637,7 +10643,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I100" s="13">
+      <c r="I100">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10673,7 +10679,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I101" s="13">
+      <c r="I101">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10709,7 +10715,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I102" s="13">
+      <c r="I102">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10745,7 +10751,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I103" s="13">
+      <c r="I103">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>300</v>
       </c>
@@ -10781,7 +10787,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>260</v>
       </c>
-      <c r="I104" s="13">
+      <c r="I104">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10817,7 +10823,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I105" s="13">
+      <c r="I105">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10853,7 +10859,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I106" s="13">
+      <c r="I106">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10889,7 +10895,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I107" s="13">
+      <c r="I107">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10925,7 +10931,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I108" s="13">
+      <c r="I108">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10961,7 +10967,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I109" s="13">
+      <c r="I109">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -10997,7 +11003,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I110" s="13">
+      <c r="I110">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11033,7 +11039,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>260</v>
       </c>
-      <c r="I111" s="13">
+      <c r="I111">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11069,7 +11075,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I112" s="13">
+      <c r="I112">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11105,7 +11111,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I113" s="13">
+      <c r="I113">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>300</v>
       </c>
@@ -11141,7 +11147,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I114" s="13">
+      <c r="I114">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11177,7 +11183,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I115" s="13">
+      <c r="I115">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11213,7 +11219,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I116" s="13">
+      <c r="I116">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11249,7 +11255,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I117" s="13">
+      <c r="I117">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11285,7 +11291,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>260</v>
       </c>
-      <c r="I118" s="13">
+      <c r="I118">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>300</v>
       </c>
@@ -11321,7 +11327,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I119" s="13">
+      <c r="I119">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11357,7 +11363,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I120" s="13">
+      <c r="I120">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11393,7 +11399,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I121" s="13">
+      <c r="I121">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11429,7 +11435,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I122" s="13">
+      <c r="I122">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11465,7 +11471,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I123" s="13">
+      <c r="I123">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11501,7 +11507,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I124" s="13">
+      <c r="I124">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11537,7 +11543,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I125" s="13">
+      <c r="I125">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11573,7 +11579,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I126" s="13">
+      <c r="I126">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11609,7 +11615,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I127" s="13">
+      <c r="I127">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11645,7 +11651,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I128" s="13">
+      <c r="I128">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11681,7 +11687,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I129" s="13">
+      <c r="I129">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11717,7 +11723,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I130" s="13">
+      <c r="I130">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11753,7 +11759,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I131" s="13">
+      <c r="I131">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11789,7 +11795,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I132" s="13">
+      <c r="I132">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11825,7 +11831,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I133" s="13">
+      <c r="I133">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11861,7 +11867,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I134" s="13">
+      <c r="I134">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11897,7 +11903,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I135" s="13">
+      <c r="I135">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11933,7 +11939,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I136" s="13">
+      <c r="I136">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -11969,7 +11975,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I137" s="13">
+      <c r="I137">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12005,7 +12011,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I138" s="13">
+      <c r="I138">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12041,7 +12047,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I139" s="13">
+      <c r="I139">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12077,7 +12083,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I140" s="13">
+      <c r="I140">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12113,7 +12119,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I141" s="13">
+      <c r="I141">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12149,7 +12155,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I142" s="13">
+      <c r="I142">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12185,7 +12191,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I143" s="13">
+      <c r="I143">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12221,7 +12227,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I144" s="13">
+      <c r="I144">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12257,7 +12263,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I145" s="13">
+      <c r="I145">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>300</v>
       </c>
@@ -12293,7 +12299,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>260</v>
       </c>
-      <c r="I146" s="13">
+      <c r="I146">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12329,7 +12335,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I147" s="13">
+      <c r="I147">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12365,7 +12371,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I148" s="13">
+      <c r="I148">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12401,7 +12407,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I149" s="13">
+      <c r="I149">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12437,7 +12443,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I150" s="13">
+      <c r="I150">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>300</v>
       </c>
@@ -12473,7 +12479,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I151" s="13">
+      <c r="I151">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12509,7 +12515,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I152" s="13">
+      <c r="I152">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12545,7 +12551,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>260</v>
       </c>
-      <c r="I153" s="13">
+      <c r="I153">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12581,7 +12587,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I154" s="13">
+      <c r="I154">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12617,7 +12623,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I155" s="13">
+      <c r="I155">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12653,7 +12659,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I156" s="13">
+      <c r="I156">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12689,7 +12695,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I157" s="13">
+      <c r="I157">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12725,7 +12731,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I158" s="13">
+      <c r="I158">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12761,7 +12767,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I159" s="13">
+      <c r="I159">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12797,7 +12803,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I160" s="13">
+      <c r="I160">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12833,7 +12839,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I161" s="13">
+      <c r="I161">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12869,7 +12875,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I162" s="13">
+      <c r="I162">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12905,7 +12911,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I163" s="13">
+      <c r="I163">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12941,7 +12947,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I164" s="13">
+      <c r="I164">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -12977,7 +12983,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I165" s="13">
+      <c r="I165">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13013,7 +13019,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I166" s="13">
+      <c r="I166">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13049,7 +13055,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I167" s="13">
+      <c r="I167">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13085,7 +13091,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I168" s="13">
+      <c r="I168">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>300</v>
       </c>
@@ -13121,7 +13127,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I169" s="13">
+      <c r="I169">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13157,7 +13163,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I170" s="13">
+      <c r="I170">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13193,7 +13199,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I171" s="13">
+      <c r="I171">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13229,7 +13235,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I172" s="13">
+      <c r="I172">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13265,7 +13271,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I173" s="13">
+      <c r="I173">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13301,7 +13307,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>260</v>
       </c>
-      <c r="I174" s="13">
+      <c r="I174">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>300</v>
       </c>
@@ -13337,7 +13343,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I175" s="13">
+      <c r="I175">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13373,7 +13379,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I176" s="13">
+      <c r="I176">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13409,7 +13415,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I177" s="13">
+      <c r="I177">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13445,7 +13451,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I178" s="13">
+      <c r="I178">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13481,7 +13487,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I179" s="13">
+      <c r="I179">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13517,7 +13523,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I180" s="13">
+      <c r="I180">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13553,7 +13559,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I181" s="13">
+      <c r="I181">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13589,7 +13595,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I182" s="13">
+      <c r="I182">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13625,7 +13631,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I183" s="13">
+      <c r="I183">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13661,7 +13667,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I184" s="13">
+      <c r="I184">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13697,7 +13703,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I185" s="13">
+      <c r="I185">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>300</v>
       </c>
@@ -13733,7 +13739,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I186" s="13">
+      <c r="I186">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13769,7 +13775,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I187" s="13">
+      <c r="I187">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13805,7 +13811,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I188" s="13">
+      <c r="I188">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13841,7 +13847,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I189" s="13">
+      <c r="I189">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13877,7 +13883,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I190" s="13">
+      <c r="I190">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13913,7 +13919,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I191" s="13">
+      <c r="I191">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13949,7 +13955,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I192" s="13">
+      <c r="I192">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -13985,7 +13991,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I193" s="13">
+      <c r="I193">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14021,7 +14027,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I194" s="13">
+      <c r="I194">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14057,7 +14063,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>260</v>
       </c>
-      <c r="I195" s="13">
+      <c r="I195">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14093,7 +14099,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I196" s="13">
+      <c r="I196">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14129,7 +14135,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I197" s="13">
+      <c r="I197">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14165,7 +14171,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I198" s="13">
+      <c r="I198">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14201,7 +14207,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I199" s="13">
+      <c r="I199">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14237,7 +14243,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I200" s="13">
+      <c r="I200">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14273,7 +14279,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I201" s="13">
+      <c r="I201">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14309,7 +14315,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I202" s="13">
+      <c r="I202">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14345,7 +14351,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I203" s="13">
+      <c r="I203">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14381,7 +14387,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I204" s="13">
+      <c r="I204">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14417,7 +14423,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I205" s="13">
+      <c r="I205">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14453,7 +14459,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I206" s="13">
+      <c r="I206">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14489,7 +14495,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I207" s="13">
+      <c r="I207">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14525,7 +14531,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I208" s="13">
+      <c r="I208">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14561,7 +14567,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I209" s="13">
+      <c r="I209">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14597,7 +14603,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I210" s="13">
+      <c r="I210">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14633,7 +14639,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I211" s="13">
+      <c r="I211">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14669,7 +14675,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I212" s="13">
+      <c r="I212">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14705,7 +14711,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I213" s="13">
+      <c r="I213">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14741,7 +14747,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I214" s="13">
+      <c r="I214">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14777,7 +14783,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I215" s="13">
+      <c r="I215">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14813,7 +14819,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I216" s="13">
+      <c r="I216">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14849,7 +14855,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I217" s="13">
+      <c r="I217">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14885,7 +14891,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I218" s="13">
+      <c r="I218">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14921,7 +14927,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I219" s="13">
+      <c r="I219">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14957,7 +14963,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I220" s="13">
+      <c r="I220">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -14993,7 +14999,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I221" s="13">
+      <c r="I221">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15029,7 +15035,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I222" s="13">
+      <c r="I222">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15065,7 +15071,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I223" s="13">
+      <c r="I223">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15101,7 +15107,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I224" s="13">
+      <c r="I224">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15137,7 +15143,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I225" s="13">
+      <c r="I225">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15173,7 +15179,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I226" s="13">
+      <c r="I226">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15209,7 +15215,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I227" s="13">
+      <c r="I227">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15245,7 +15251,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I228" s="13">
+      <c r="I228">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15281,7 +15287,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I229" s="13">
+      <c r="I229">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15317,7 +15323,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I230" s="13">
+      <c r="I230">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15353,7 +15359,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I231" s="13">
+      <c r="I231">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15389,7 +15395,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I232" s="13">
+      <c r="I232">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15425,7 +15431,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I233" s="13">
+      <c r="I233">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15461,7 +15467,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I234" s="13">
+      <c r="I234">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>300</v>
       </c>
@@ -15497,7 +15503,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I235" s="13">
+      <c r="I235">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15533,7 +15539,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I236" s="13">
+      <c r="I236">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15569,7 +15575,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>260</v>
       </c>
-      <c r="I237" s="13">
+      <c r="I237">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15605,7 +15611,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I238" s="13">
+      <c r="I238">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15641,7 +15647,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I239" s="13">
+      <c r="I239">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>300</v>
       </c>
@@ -15677,7 +15683,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I240" s="13">
+      <c r="I240">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15713,7 +15719,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I241" s="13">
+      <c r="I241">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15749,7 +15755,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I242" s="13">
+      <c r="I242">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15785,7 +15791,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I243" s="13">
+      <c r="I243">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15821,7 +15827,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>260</v>
       </c>
-      <c r="I244" s="13">
+      <c r="I244">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>300</v>
       </c>
@@ -15857,7 +15863,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I245" s="13">
+      <c r="I245">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15893,7 +15899,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I246" s="13">
+      <c r="I246">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15929,7 +15935,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I247" s="13">
+      <c r="I247">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -15965,7 +15971,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I248" s="13">
+      <c r="I248">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16001,7 +16007,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I249" s="13">
+      <c r="I249">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16037,7 +16043,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I250" s="13">
+      <c r="I250">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16073,7 +16079,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I251" s="13">
+      <c r="I251">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16109,7 +16115,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I252" s="13">
+      <c r="I252">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16145,7 +16151,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I253" s="13">
+      <c r="I253">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16181,7 +16187,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I254" s="13">
+      <c r="I254">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16217,7 +16223,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I255" s="13">
+      <c r="I255">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16253,7 +16259,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I256" s="13">
+      <c r="I256">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16289,7 +16295,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I257" s="13">
+      <c r="I257">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16325,7 +16331,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I258" s="13">
+      <c r="I258">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16361,7 +16367,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I259" s="13">
+      <c r="I259">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16397,7 +16403,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I260" s="13">
+      <c r="I260">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16433,7 +16439,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I261" s="13">
+      <c r="I261">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16469,7 +16475,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I262" s="13">
+      <c r="I262">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16505,7 +16511,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I263" s="13">
+      <c r="I263">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16541,7 +16547,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I264" s="13">
+      <c r="I264">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16577,7 +16583,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I265" s="13">
+      <c r="I265">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16613,7 +16619,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I266" s="13">
+      <c r="I266">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16649,7 +16655,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I267" s="13">
+      <c r="I267">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16685,7 +16691,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I268" s="13">
+      <c r="I268">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16721,7 +16727,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I269" s="13">
+      <c r="I269">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16757,7 +16763,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I270" s="13">
+      <c r="I270">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>300</v>
       </c>
@@ -16793,7 +16799,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>190</v>
       </c>
-      <c r="I271" s="13">
+      <c r="I271">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16829,7 +16835,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>260</v>
       </c>
-      <c r="I272" s="13">
+      <c r="I272">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16865,7 +16871,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I273" s="13">
+      <c r="I273">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16901,7 +16907,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I274" s="13">
+      <c r="I274">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16937,7 +16943,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I275" s="13">
+      <c r="I275">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -16973,7 +16979,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I276" s="13">
+      <c r="I276">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17009,7 +17015,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I277" s="13">
+      <c r="I277">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17045,7 +17051,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I278" s="13">
+      <c r="I278">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17081,7 +17087,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I279" s="13">
+      <c r="I279">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17117,7 +17123,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I280" s="13">
+      <c r="I280">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17153,7 +17159,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I281" s="13">
+      <c r="I281">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17189,7 +17195,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I282" s="13">
+      <c r="I282">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17225,7 +17231,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I283" s="13">
+      <c r="I283">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17261,7 +17267,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I284" s="13">
+      <c r="I284">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17297,7 +17303,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I285" s="13">
+      <c r="I285">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17333,7 +17339,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I286" s="13">
+      <c r="I286">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17369,7 +17375,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I287" s="13">
+      <c r="I287">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17405,7 +17411,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I288" s="13">
+      <c r="I288">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17441,7 +17447,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I289" s="13">
+      <c r="I289">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17477,7 +17483,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I290" s="13">
+      <c r="I290">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17513,7 +17519,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I291" s="13">
+      <c r="I291">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17549,7 +17555,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I292" s="13">
+      <c r="I292">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17585,7 +17591,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I293" s="13">
+      <c r="I293">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17621,7 +17627,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I294" s="13">
+      <c r="I294">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17657,7 +17663,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I295" s="13">
+      <c r="I295">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17693,7 +17699,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I296" s="13">
+      <c r="I296">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17729,7 +17735,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I297" s="13">
+      <c r="I297">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17765,7 +17771,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I298" s="13">
+      <c r="I298">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17801,7 +17807,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I299" s="13">
+      <c r="I299">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17837,7 +17843,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I300" s="13">
+      <c r="I300">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17873,7 +17879,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I301" s="13">
+      <c r="I301">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17909,7 +17915,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I302" s="13">
+      <c r="I302">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17945,7 +17951,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I303" s="13">
+      <c r="I303">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -17981,7 +17987,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I304" s="13">
+      <c r="I304">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18017,7 +18023,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I305" s="13">
+      <c r="I305">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18053,7 +18059,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I306" s="13">
+      <c r="I306">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18089,7 +18095,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I307" s="13">
+      <c r="I307">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18125,7 +18131,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I308" s="13">
+      <c r="I308">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18161,7 +18167,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I309" s="13">
+      <c r="I309">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18197,7 +18203,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I310" s="13">
+      <c r="I310">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18233,7 +18239,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I311" s="13">
+      <c r="I311">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18269,7 +18275,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I312" s="13">
+      <c r="I312">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18305,7 +18311,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I313" s="13">
+      <c r="I313">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18341,7 +18347,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I314" s="13">
+      <c r="I314">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18377,7 +18383,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I315" s="13">
+      <c r="I315">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18413,7 +18419,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I316" s="13">
+      <c r="I316">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18449,7 +18455,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I317" s="13">
+      <c r="I317">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18485,7 +18491,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I318" s="13">
+      <c r="I318">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18521,7 +18527,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I319" s="13">
+      <c r="I319">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18557,7 +18563,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I320" s="13">
+      <c r="I320">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18593,7 +18599,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I321" s="13">
+      <c r="I321">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18629,7 +18635,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I322" s="13">
+      <c r="I322">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18665,7 +18671,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I323" s="13">
+      <c r="I323">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18701,7 +18707,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I324" s="13">
+      <c r="I324">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18737,7 +18743,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I325" s="13">
+      <c r="I325">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18773,7 +18779,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I326" s="13">
+      <c r="I326">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18809,7 +18815,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I327" s="13">
+      <c r="I327">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18845,7 +18851,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I328" s="13">
+      <c r="I328">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18881,7 +18887,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I329" s="13">
+      <c r="I329">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18917,7 +18923,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I330" s="13">
+      <c r="I330">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18953,7 +18959,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I331" s="13">
+      <c r="I331">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -18989,7 +18995,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I332" s="13">
+      <c r="I332">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19025,7 +19031,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I333" s="13">
+      <c r="I333">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19061,7 +19067,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I334" s="13">
+      <c r="I334">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19097,7 +19103,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I335" s="13">
+      <c r="I335">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19133,7 +19139,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I336" s="13">
+      <c r="I336">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19169,7 +19175,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I337" s="13">
+      <c r="I337">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19205,7 +19211,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I338" s="13">
+      <c r="I338">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19241,7 +19247,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I339" s="13">
+      <c r="I339">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19277,7 +19283,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I340" s="13">
+      <c r="I340">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19313,7 +19319,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I341" s="13">
+      <c r="I341">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19349,7 +19355,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I342" s="13">
+      <c r="I342">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19385,7 +19391,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I343" s="13">
+      <c r="I343">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19421,7 +19427,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I344" s="13">
+      <c r="I344">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19457,7 +19463,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I345" s="13">
+      <c r="I345">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19493,7 +19499,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I346" s="13">
+      <c r="I346">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19529,7 +19535,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I347" s="13">
+      <c r="I347">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19565,7 +19571,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I348" s="13">
+      <c r="I348">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19601,7 +19607,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I349" s="13">
+      <c r="I349">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19637,7 +19643,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I350" s="13">
+      <c r="I350">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19673,7 +19679,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I351" s="13">
+      <c r="I351">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19709,7 +19715,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I352" s="13">
+      <c r="I352">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19745,7 +19751,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I353" s="13">
+      <c r="I353">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19781,7 +19787,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I354" s="13">
+      <c r="I354">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19817,7 +19823,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I355" s="13">
+      <c r="I355">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19853,7 +19859,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I356" s="13">
+      <c r="I356">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19889,7 +19895,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I357" s="13">
+      <c r="I357">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19925,7 +19931,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I358" s="13">
+      <c r="I358">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19961,7 +19967,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I359" s="13">
+      <c r="I359">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -19997,7 +20003,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I360" s="13">
+      <c r="I360">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -20033,7 +20039,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I361" s="13">
+      <c r="I361">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -20069,7 +20075,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I362" s="13">
+      <c r="I362">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -20105,7 +20111,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I363" s="13">
+      <c r="I363">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -20141,7 +20147,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I364" s="13">
+      <c r="I364">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -20177,7 +20183,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I365" s="13">
+      <c r="I365">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -20213,7 +20219,7 @@
         <f>IF(WEEKDAY(ekodom36[[#This Row],[Data]],11)=3,IF(ekodom36[[#This Row],[Przed pobraniem]]-260&lt;0,260,0),IF(ekodom36[[#This Row],[Przed pobraniem]]-190&lt;0,190,0))</f>
         <v>0</v>
       </c>
-      <c r="I366" s="13">
+      <c r="I366">
         <f>IF(AND(ekodom36[[#This Row],[Data]]&gt;=DATEVALUE("01/04/2022"),ekodom36[[#This Row],[Data]]&lt;=DATEVALUE("30/09/2022"),ekodom36[[#This Row],[podlewanie ogrodka]]=1),IF(ekodom36[[#This Row],[Po zwyklym uzyciu]]-300&lt;0,300,0),0)</f>
         <v>0</v>
       </c>
@@ -20230,8 +20236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I366"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
